--- a/examples/masterarbeit/experiments_traffic.xlsx
+++ b/examples/masterarbeit/experiments_traffic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FD3516-4325-4729-B85F-F50F3C3BBB05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB05B09-B582-48D4-B252-D21FF4BDB1CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="35">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -121,13 +121,28 @@
   </si>
   <si>
     <t>epochs</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191114-095137</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191114-114036</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191114-150653</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191115-104111</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191116-142454</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +168,19 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,11 +233,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Berechnung" xfId="2" builtinId="22"/>
@@ -526,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -541,7 +571,7 @@
     <col min="6" max="6" width="32.61328125" customWidth="1"/>
     <col min="7" max="7" width="18.15234375" customWidth="1"/>
     <col min="8" max="8" width="12.69140625" customWidth="1"/>
-    <col min="10" max="10" width="14.61328125" customWidth="1"/>
+    <col min="10" max="10" width="26.921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
@@ -658,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -671,6 +701,9 @@
       </c>
       <c r="H8" t="s">
         <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -684,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -697,6 +730,9 @@
       </c>
       <c r="H9" t="s">
         <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -710,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -808,17 +844,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -838,19 +874,22 @@
       <c r="H18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -864,113 +903,172 @@
       <c r="H19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="J19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="4" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>50</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>64</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
         <v>5</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C22">
         <v>0</v>
       </c>
-      <c r="D20" s="2">
-        <v>50</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="5">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>64</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
         <v>4</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>50</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26">
         <v>100</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G26" t="s">
         <v>12</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
         <v>9</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>50</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27">
         <v>100</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>50</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27">
-        <v>30</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -979,170 +1077,170 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
         <v>4</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>50</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28">
-        <v>50</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
         <v>12</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
         <v>4</v>
       </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>50</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="2">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>50</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2">
         <v>100</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>50</v>
-      </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32">
-        <v>50</v>
-      </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="2">
-        <v>4</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
-        <v>50</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="2">
-        <v>50</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
         <v>4</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>50</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34">
-        <v>100</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
+      <c r="G35" t="s">
         <v>12</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="2">
         <v>4</v>
       </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
-        <v>50</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="2">
-        <v>100</v>
-      </c>
-      <c r="G35" s="2" t="s">
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>50</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="2">
+        <v>50</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -1171,91 +1269,122 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="2">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>50</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="2">
+        <v>100</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
         <v>9</v>
       </c>
-      <c r="B39">
+      <c r="B42">
         <v>4</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>50</v>
-      </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>50</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42">
         <v>100</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G42" t="s">
         <v>12</v>
       </c>
-      <c r="H39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="2">
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="2">
         <v>9</v>
       </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2">
-        <v>50</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="2">
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>50</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="2">
         <v>100</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41">
-        <v>9</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>50</v>
-      </c>
-      <c r="E41" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41">
-        <v>100</v>
-      </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>50</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
         <v>27</v>
       </c>
     </row>

--- a/examples/masterarbeit/experiments_traffic.xlsx
+++ b/examples/masterarbeit/experiments_traffic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB05B09-B582-48D4-B252-D21FF4BDB1CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD690701-283B-4BC7-AC2F-6640ED0F4522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="36">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>exp_traffic_20191116-142454</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191118-142029</t>
   </si>
 </sst>
 </file>
@@ -559,7 +562,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -760,6 +763,9 @@
       <c r="H10" t="s">
         <v>16</v>
       </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">

--- a/examples/masterarbeit/experiments_traffic.xlsx
+++ b/examples/masterarbeit/experiments_traffic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD690701-283B-4BC7-AC2F-6640ED0F4522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EACFA21-9609-455C-942B-D33A5412F00B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="36">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -559,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -767,242 +767,239 @@
         <v>35</v>
       </c>
     </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5">
         <v>5</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>64</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
         <v>5</v>
       </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>50</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" t="s">
-        <v>16</v>
+      <c r="F16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>32</v>
       </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>50</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>50</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="5">
-        <v>1</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5">
-        <v>64</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" s="4" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -1022,205 +1019,221 @@
       <c r="H23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="5">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>64</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="J26" s="5" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>50</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26">
-        <v>100</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27">
-        <v>9</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>50</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28">
         <v>100</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" t="s">
         <v>12</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>50</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30">
-        <v>30</v>
-      </c>
-      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29" t="s">
         <v>12</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H29" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
         <v>4</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>50</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31">
-        <v>50</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
         <v>12</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
         <v>4</v>
       </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
-        <v>50</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="2">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>50</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2">
         <v>100</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>50</v>
-      </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35">
-        <v>50</v>
-      </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="2">
-        <v>4</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2">
-        <v>50</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="2">
-        <v>50</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -1240,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="F37">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s">
         <v>12</v>
@@ -1266,7 +1279,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>12</v>
@@ -1275,61 +1288,61 @@
         <v>15</v>
       </c>
     </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>50</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="2">
+      <c r="A40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2">
         <v>4</v>
       </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
-        <v>50</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="2">
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>50</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="2">
         <v>100</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>50</v>
-      </c>
-      <c r="E42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42">
-        <v>100</v>
-      </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
@@ -1337,7 +1350,7 @@
         <v>8</v>
       </c>
       <c r="B43" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -1363,7 +1376,7 @@
         <v>9</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1384,13 +1397,65 @@
         <v>16</v>
       </c>
     </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2">
+        <v>9</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>50</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="2">
+        <v>100</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>50</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
         <v>27</v>
       </c>
     </row>

--- a/examples/masterarbeit/experiments_traffic.xlsx
+++ b/examples/masterarbeit/experiments_traffic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EACFA21-9609-455C-942B-D33A5412F00B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D27D00-D29E-4970-8014-896E2F37A590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="35">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -123,22 +123,19 @@
     <t>epochs</t>
   </si>
   <si>
-    <t>exp_traffic_20191114-095137</t>
-  </si>
-  <si>
-    <t>exp_traffic_20191114-114036</t>
-  </si>
-  <si>
-    <t>exp_traffic_20191114-150653</t>
-  </si>
-  <si>
-    <t>exp_traffic_20191115-104111</t>
-  </si>
-  <si>
-    <t>exp_traffic_20191116-142454</t>
-  </si>
-  <si>
-    <t>exp_traffic_20191118-142029</t>
+    <t>done</t>
+  </si>
+  <si>
+    <t>ongoing</t>
+  </si>
+  <si>
+    <t>heute nacht</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>übernächstes</t>
   </si>
 </sst>
 </file>
@@ -559,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -574,7 +571,7 @@
     <col min="6" max="6" width="32.61328125" customWidth="1"/>
     <col min="7" max="7" width="18.15234375" customWidth="1"/>
     <col min="8" max="8" width="12.69140625" customWidth="1"/>
-    <col min="10" max="10" width="26.921875" customWidth="1"/>
+    <col min="10" max="10" width="26.921875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
@@ -705,8 +702,8 @@
       <c r="H8" t="s">
         <v>16</v>
       </c>
-      <c r="J8" t="s">
-        <v>32</v>
+      <c r="J8" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -734,8 +731,8 @@
       <c r="H9" t="s">
         <v>16</v>
       </c>
-      <c r="J9" t="s">
-        <v>34</v>
+      <c r="J9" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -763,8 +760,8 @@
       <c r="H10" t="s">
         <v>16</v>
       </c>
-      <c r="J10" t="s">
-        <v>35</v>
+      <c r="J10" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -875,9 +872,7 @@
       <c r="H16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
@@ -921,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -934,6 +929,9 @@
       </c>
       <c r="H20" t="s">
         <v>16</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
@@ -961,139 +959,137 @@
       <c r="H21" t="s">
         <v>16</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4">
+    <row r="22" spans="1:10" s="4" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
         <v>0</v>
       </c>
-      <c r="D22" s="4">
-        <v>50</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="D22" s="5">
+        <v>64</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="4" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5">
+    <row r="23" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" s="5">
-        <v>64</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="5" t="s">
+      <c r="D23">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="5">
         <v>5</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="5">
-        <v>5</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0</v>
-      </c>
-      <c r="D25" s="5">
-        <v>64</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="J26" s="5" t="s">
-        <v>34</v>
+      <c r="D24" s="5">
+        <v>64</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
@@ -1101,7 +1097,7 @@
         <v>8</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1122,35 +1118,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29">
-        <v>9</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>64</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29">
-        <v>100</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" t="s">
-        <v>15</v>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>64</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
@@ -1164,13 +1160,13 @@
         <v>1</v>
       </c>
       <c r="D32">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32">
         <v>50</v>
-      </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32">
-        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>12</v>
@@ -1180,282 +1176,256 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33">
+      <c r="A33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2">
         <v>4</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>50</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33">
-        <v>50</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>64</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2">
+        <v>100</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="2">
-        <v>4</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2">
-        <v>50</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="2">
-        <v>100</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>15</v>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>64</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37">
+      <c r="A37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="2">
         <v>4</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="2">
         <v>50</v>
       </c>
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37">
-        <v>50</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="G37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>64</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="2">
         <v>4</v>
       </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <v>50</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="2">
-        <v>50</v>
-      </c>
-      <c r="G38" s="2" t="s">
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>64</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="2">
+        <v>100</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="2">
         <v>4</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>50</v>
-      </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39">
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>64</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="2">
         <v>100</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="2">
+      <c r="H42" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
         <v>4</v>
       </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2">
-        <v>50</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="2">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>64</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43">
         <v>100</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G43" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="2">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>64</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="2">
+        <v>100</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="2">
-        <v>4</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2">
-        <v>50</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>64</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45">
         <v>100</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G45" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>50</v>
-      </c>
-      <c r="E44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44">
-        <v>100</v>
-      </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="2">
-        <v>9</v>
-      </c>
-      <c r="C45" s="2">
-        <v>1</v>
-      </c>
-      <c r="D45" s="2">
-        <v>50</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="2">
-        <v>100</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46">
-        <v>9</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>50</v>
-      </c>
-      <c r="E46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46">
-        <v>100</v>
-      </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" t="s">
-        <v>16</v>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
         <v>27</v>
       </c>
     </row>

--- a/examples/masterarbeit/experiments_traffic.xlsx
+++ b/examples/masterarbeit/experiments_traffic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D27D00-D29E-4970-8014-896E2F37A590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0350CFC-6C49-457D-B0BA-A9EF70F7E2D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="40">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -99,12 +99,6 @@
     <t>Experiments on data distribution:</t>
   </si>
   <si>
-    <t>20% classes on 20% clients exclusively</t>
-  </si>
-  <si>
-    <t>50% classes on 50% clients exclusively</t>
-  </si>
-  <si>
     <t>Experiments on attack model</t>
   </si>
   <si>
@@ -123,19 +117,40 @@
     <t>epochs</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>ongoing</t>
-  </si>
-  <si>
-    <t>heute nacht</t>
-  </si>
-  <si>
     <t>next</t>
   </si>
   <si>
-    <t>übernächstes</t>
+    <t>exp_traffic_20191121-100638</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191121-113201</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191121-144634</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191121-162310</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191121-225114</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191121-190642</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191122-202041</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191122-141715</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191123-193202</t>
+  </si>
+  <si>
+    <t>20% classes on 20% data on 20% clients exclusively</t>
+  </si>
+  <si>
+    <t>50% classes on 50% data on 50% clients exclusively</t>
   </si>
 </sst>
 </file>
@@ -556,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -567,7 +582,7 @@
     <col min="1" max="1" width="15.23046875" customWidth="1"/>
     <col min="2" max="2" width="15.15234375" customWidth="1"/>
     <col min="3" max="3" width="16.84375" customWidth="1"/>
-    <col min="5" max="5" width="34.4609375" customWidth="1"/>
+    <col min="5" max="5" width="43.3828125" customWidth="1"/>
     <col min="6" max="6" width="32.61328125" customWidth="1"/>
     <col min="7" max="7" width="18.15234375" customWidth="1"/>
     <col min="8" max="8" width="12.69140625" customWidth="1"/>
@@ -600,10 +615,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
@@ -732,7 +747,7 @@
         <v>16</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -826,7 +841,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -846,13 +861,16 @@
       <c r="H15" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="J15" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -861,7 +879,7 @@
         <v>64</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
@@ -872,14 +890,16 @@
       <c r="H16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -888,7 +908,7 @@
         <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -931,7 +951,7 @@
         <v>16</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
@@ -960,7 +980,7 @@
         <v>16</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1047,7 +1067,7 @@
         <v>16</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1091,6 +1111,9 @@
       <c r="H27" t="s">
         <v>15</v>
       </c>
+      <c r="J27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
@@ -1117,36 +1140,42 @@
       <c r="H28" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>20</v>
+      <c r="J28" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>64</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31">
-        <v>30</v>
-      </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
@@ -1166,7 +1195,7 @@
         <v>10</v>
       </c>
       <c r="F32">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>12</v>
@@ -1175,258 +1204,293 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
-        <v>64</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="2">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>64</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2">
         <v>100</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J34" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37">
         <v>4</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>64</v>
-      </c>
-      <c r="E36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>64</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37">
         <v>50</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
         <v>12</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H37" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2">
         <v>4</v>
       </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2">
-        <v>64</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="2">
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>64</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="2">
         <v>50</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39">
         <v>4</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>64</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>64</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39">
         <v>100</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>12</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H39" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="2">
+      <c r="J39" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2">
         <v>4</v>
       </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2">
-        <v>64</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="2">
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>64</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="2">
         <v>100</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+      <c r="J40" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="2">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>64</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="2">
+        <v>100</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>64</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2">
+        <v>9</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>64</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="2">
+        <v>100</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>64</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="2">
-        <v>4</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>64</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="2">
-        <v>100</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43">
-        <v>4</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>64</v>
-      </c>
-      <c r="E43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43">
-        <v>100</v>
-      </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="2">
-        <v>9</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2">
-        <v>64</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="2">
-        <v>100</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45">
-        <v>9</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>64</v>
-      </c>
-      <c r="E45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45">
-        <v>100</v>
-      </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/examples/masterarbeit/experiments_traffic.xlsx
+++ b/examples/masterarbeit/experiments_traffic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0350CFC-6C49-457D-B0BA-A9EF70F7E2D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF18A3D-B9FB-4501-88EB-F0022B8F66F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
+    <workbookView xWindow="1131" yWindow="1123" windowWidth="29469" windowHeight="13157" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="43">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>50% classes on 50% data on 50% clients exclusively</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191125-121706</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191125-140135</t>
+  </si>
+  <si>
+    <t>ongoing</t>
   </si>
 </sst>
 </file>
@@ -573,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -891,7 +900,7 @@
         <v>16</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
@@ -1229,6 +1238,9 @@
       <c r="H33" t="s">
         <v>15</v>
       </c>
+      <c r="J33" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
@@ -1289,6 +1301,9 @@
       <c r="H37" t="s">
         <v>14</v>
       </c>
+      <c r="J37" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
@@ -1315,6 +1330,9 @@
       <c r="H38" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="J38" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
@@ -1342,7 +1360,7 @@
         <v>14</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">

--- a/examples/masterarbeit/experiments_traffic.xlsx
+++ b/examples/masterarbeit/experiments_traffic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF18A3D-B9FB-4501-88EB-F0022B8F66F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C129A2-AE3F-4821-9C72-6349D5DBDB63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1131" yWindow="1123" windowWidth="29469" windowHeight="13157" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="47">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>exp_traffic_20191125-140135</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191126-123859</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191126-182816</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191202-110129</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191202-125420</t>
   </si>
   <si>
     <t>ongoing</t>
@@ -580,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -793,7 +805,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -812,6 +824,9 @@
       </c>
       <c r="H11" t="s">
         <v>16</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -819,7 +834,7 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -839,128 +854,131 @@
       <c r="H12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="J12" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5">
-        <v>10</v>
-      </c>
-      <c r="C15" s="5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="5">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5">
         <v>0</v>
       </c>
-      <c r="D15" s="5">
-        <v>64</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="4" t="s">
+      <c r="D16" s="5">
+        <v>64</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2">
+    <row r="17" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
         <v>0</v>
       </c>
-      <c r="D16" s="2">
-        <v>64</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D17" s="2">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="4" t="s">
+      <c r="F17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="C17">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>64</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D18">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
         <v>39</v>
       </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
@@ -974,154 +992,154 @@
         <v>0</v>
       </c>
       <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>32</v>
       </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="4" t="s">
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="4" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5">
+    <row r="23" spans="1:10" s="4" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5">
         <v>0</v>
       </c>
-      <c r="D22" s="5">
-        <v>64</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="4" t="s">
+      <c r="D23" s="5">
+        <v>64</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23">
+    <row r="24" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
         <v>5</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>0</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>32</v>
       </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="4" t="s">
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="5">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="5">
         <v>5</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C25" s="5">
         <v>0</v>
       </c>
-      <c r="D24" s="5">
-        <v>64</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="4" t="s">
+      <c r="D25" s="5">
+        <v>64</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
+    <row r="26" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>64</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27">
-        <v>100</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
@@ -1129,7 +1147,7 @@
         <v>8</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1150,7 +1168,7 @@
         <v>15</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
@@ -1158,7 +1176,7 @@
         <v>8</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1179,38 +1197,41 @@
         <v>15</v>
       </c>
       <c r="J29" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>64</v>
-      </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32">
-        <v>30</v>
-      </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
@@ -1230,7 +1251,7 @@
         <v>10</v>
       </c>
       <c r="F33">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
@@ -1239,275 +1260,304 @@
         <v>15</v>
       </c>
       <c r="J33" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>64</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2">
         <v>4</v>
       </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2">
-        <v>64</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="2">
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="2">
         <v>100</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38">
         <v>4</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>64</v>
-      </c>
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>64</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38">
         <v>50</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G38" t="s">
         <v>12</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H38" t="s">
         <v>14</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="J38" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="2">
         <v>4</v>
       </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <v>64</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="2">
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>64</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="2">
         <v>50</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40">
         <v>4</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>64</v>
-      </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>64</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40">
         <v>100</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G40" t="s">
         <v>12</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H40" t="s">
         <v>14</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="2">
         <v>4</v>
       </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2">
-        <v>64</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="2">
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>64</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="2">
         <v>100</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="J41" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="2">
         <v>4</v>
       </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2">
-        <v>64</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="2">
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>64</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="2">
         <v>100</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
         <v>9</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>4</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>64</v>
-      </c>
-      <c r="E44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>64</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45">
         <v>100</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G45" t="s">
         <v>12</v>
       </c>
-      <c r="H44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="2">
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="2">
         <v>9</v>
       </c>
-      <c r="C45" s="2">
-        <v>1</v>
-      </c>
-      <c r="D45" s="2">
-        <v>64</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="2">
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>64</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="2">
         <v>100</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
         <v>9</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>9</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>64</v>
-      </c>
-      <c r="E46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>64</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47">
         <v>100</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G47" t="s">
         <v>12</v>
       </c>
-      <c r="H46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>22</v>
+      <c r="H47" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
         <v>25</v>
       </c>
     </row>

--- a/examples/masterarbeit/experiments_traffic.xlsx
+++ b/examples/masterarbeit/experiments_traffic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C129A2-AE3F-4821-9C72-6349D5DBDB63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA6A431-8949-43E7-9813-C317D1796875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="49">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -172,6 +173,12 @@
   </si>
   <si>
     <t>ongoing</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191202-165243</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191203-104619</t>
   </si>
 </sst>
 </file>
@@ -592,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -826,7 +833,7 @@
         <v>16</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1321,130 +1328,180 @@
         <v>35</v>
       </c>
     </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>64</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>64</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>50</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="B38" s="2">
         <v>4</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>64</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38">
-        <v>50</v>
-      </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" t="s">
-        <v>14</v>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>64</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="2">
+        <v>100</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="2">
-        <v>4</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2">
-        <v>64</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="2">
-        <v>50</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
         <v>4</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>64</v>
-      </c>
-      <c r="E40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40">
-        <v>100</v>
-      </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>64</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>50</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="2">
+      <c r="J41" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="2">
         <v>4</v>
       </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
-        <v>64</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="2">
-        <v>100</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="2" t="s">
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>64</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="2">
+        <v>50</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J41" s="4" t="s">
-        <v>35</v>
+      <c r="J42" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>64</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
@@ -1472,92 +1529,132 @@
       <c r="H44" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+      <c r="J44" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>64</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="2">
+        <v>100</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
         <v>9</v>
       </c>
-      <c r="B45">
+      <c r="B48">
         <v>4</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>64</v>
-      </c>
-      <c r="E45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>64</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48">
         <v>100</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="2">
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="2">
         <v>9</v>
       </c>
-      <c r="C46" s="2">
-        <v>1</v>
-      </c>
-      <c r="D46" s="2">
-        <v>64</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="2">
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>64</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="2">
         <v>100</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="2" t="s">
+      <c r="G49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
         <v>9</v>
       </c>
-      <c r="B47">
+      <c r="B50">
         <v>9</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>64</v>
-      </c>
-      <c r="E47" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>64</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50">
         <v>100</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
         <v>25</v>
       </c>
     </row>

--- a/examples/masterarbeit/experiments_traffic.xlsx
+++ b/examples/masterarbeit/experiments_traffic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA6A431-8949-43E7-9813-C317D1796875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B860973C-77E3-4F76-BCAD-7E1085D9A360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="51">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -179,6 +178,12 @@
   </si>
   <si>
     <t>exp_traffic_20191203-104619</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191203-164352</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191203-142902</t>
   </si>
 </sst>
 </file>
@@ -602,7 +607,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1353,6 +1358,9 @@
       <c r="H36" t="s">
         <v>15</v>
       </c>
+      <c r="J36" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
@@ -1380,7 +1388,7 @@
         <v>15</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
@@ -1443,7 +1451,7 @@
         <v>14</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">

--- a/examples/masterarbeit/experiments_traffic.xlsx
+++ b/examples/masterarbeit/experiments_traffic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B860973C-77E3-4F76-BCAD-7E1085D9A360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BFEE16-ABE5-4842-A21A-D763883C8481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
+    <workbookView xWindow="57645" yWindow="165" windowWidth="28590" windowHeight="15300" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="52">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -108,18 +108,9 @@
     <t>Experiments on order of time (of backdoor insertion)</t>
   </si>
   <si>
-    <t>TODO - depends on results of others</t>
-  </si>
-  <si>
     <t>name_of_result</t>
   </si>
   <si>
-    <t>epochs</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
     <t>exp_traffic_20191121-100638</t>
   </si>
   <si>
@@ -150,9 +141,6 @@
     <t>20% classes on 20% data on 20% clients exclusively</t>
   </si>
   <si>
-    <t>50% classes on 50% data on 50% clients exclusively</t>
-  </si>
-  <si>
     <t>exp_traffic_20191125-121706</t>
   </si>
   <si>
@@ -171,19 +159,34 @@
     <t>exp_traffic_20191202-125420</t>
   </si>
   <si>
-    <t>ongoing</t>
-  </si>
-  <si>
     <t>exp_traffic_20191202-165243</t>
   </si>
   <si>
-    <t>exp_traffic_20191203-104619</t>
-  </si>
-  <si>
-    <t>exp_traffic_20191203-164352</t>
-  </si>
-  <si>
-    <t>exp_traffic_20191203-142902</t>
+    <t>no real result</t>
+  </si>
+  <si>
+    <t>replacement</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191205-122505</t>
+  </si>
+  <si>
+    <t>50% classes on 50% data on 20% clients exclusively</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191209-125856</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191206-151859</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191209-150036</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>50% classes only on 20% clients</t>
   </si>
 </sst>
 </file>
@@ -604,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -619,7 +622,8 @@
     <col min="6" max="6" width="32.61328125" customWidth="1"/>
     <col min="7" max="7" width="18.15234375" customWidth="1"/>
     <col min="8" max="8" width="12.69140625" customWidth="1"/>
-    <col min="10" max="10" width="26.921875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="46.765625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="22.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
@@ -648,11 +652,9 @@
         <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
@@ -665,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -691,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -714,7 +716,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -751,7 +756,7 @@
         <v>16</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -780,7 +785,7 @@
         <v>16</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -809,7 +814,7 @@
         <v>16</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -838,7 +843,7 @@
         <v>16</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -867,7 +872,7 @@
         <v>16</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -896,7 +901,7 @@
         <v>16</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -930,7 +935,7 @@
         <v>16</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -947,7 +952,7 @@
         <v>64</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>16</v>
@@ -959,7 +964,7 @@
         <v>16</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
@@ -976,7 +981,7 @@
         <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
@@ -986,6 +991,9 @@
       </c>
       <c r="H18" t="s">
         <v>16</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
@@ -1019,7 +1027,7 @@
         <v>16</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
@@ -1048,7 +1056,7 @@
         <v>16</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1077,7 +1085,7 @@
         <v>16</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1106,7 +1114,7 @@
         <v>16</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
@@ -1135,7 +1143,7 @@
         <v>16</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1180,7 +1188,7 @@
         <v>15</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
@@ -1209,7 +1217,7 @@
         <v>15</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
@@ -1238,7 +1246,7 @@
         <v>15</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
@@ -1246,7 +1254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1272,10 +1280,10 @@
         <v>15</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1301,10 +1309,10 @@
         <v>15</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>8</v>
       </c>
@@ -1330,10 +1338,10 @@
         <v>15</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1356,13 +1364,14 @@
         <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1385,13 +1394,14 @@
         <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1414,18 +1424,19 @@
         <v>12</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L38" s="4"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1451,10 +1462,10 @@
         <v>14</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>8</v>
       </c>
@@ -1480,10 +1491,10 @@
         <v>15</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -1509,10 +1520,10 @@
         <v>14</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
@@ -1538,15 +1549,15 @@
         <v>15</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>8</v>
       </c>
@@ -1571,8 +1582,11 @@
       <c r="H47" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J47" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1597,8 +1611,9 @@
       <c r="H48" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>48</v>
+      <c r="J48" s="4" t="str">
+        <f>J38</f>
+        <v>exp_traffic_20191206-151859</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
@@ -1625,6 +1640,9 @@
       </c>
       <c r="H49" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
@@ -1653,7 +1671,7 @@
         <v>16</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
@@ -1662,11 +1680,175 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="2">
+        <v>4</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>64</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="2">
         <v>25</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="4" t="str">
+        <f>J36</f>
+        <v>TODO</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="2">
+        <v>4</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>64</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="2">
+        <v>50</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="4" t="str">
+        <f t="shared" ref="J54:J55" si="0">J37</f>
+        <v>exp_traffic_20191209-150036</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="2">
+        <v>4</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>64</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="2">
+        <v>100</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>exp_traffic_20191206-151859</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="4">
+        <v>4</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4">
+        <v>64</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="4">
+        <v>25</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="4">
+        <v>4</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4">
+        <v>64</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="4">
+        <v>50</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="4">
+        <v>4</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1</v>
+      </c>
+      <c r="D58" s="4">
+        <v>64</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="4">
+        <v>100</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/examples/masterarbeit/experiments_traffic.xlsx
+++ b/examples/masterarbeit/experiments_traffic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BFEE16-ABE5-4842-A21A-D763883C8481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD59F17E-9CD4-4C18-95B4-AA75C0B9C723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57645" yWindow="165" windowWidth="28590" windowHeight="15300" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
+    <workbookView xWindow="2280" yWindow="0" windowWidth="26914" windowHeight="15514" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="56">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -183,10 +183,22 @@
     <t>exp_traffic_20191209-150036</t>
   </si>
   <si>
-    <t>TODO</t>
-  </si>
-  <si>
     <t>50% classes only on 20% clients</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191213-101110</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191215-151704</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191218-002649</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191218-094100</t>
+  </si>
+  <si>
+    <t>mult. Factor</t>
   </si>
 </sst>
 </file>
@@ -607,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -719,7 +731,7 @@
         <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -1367,7 +1379,7 @@
         <v>16</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L36" s="4"/>
     </row>
@@ -1674,69 +1686,41 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>100</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="2">
-        <v>4</v>
-      </c>
-      <c r="C53" s="2">
-        <v>1</v>
-      </c>
-      <c r="D53" s="2">
-        <v>64</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="2">
-        <v>25</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J53" s="4" t="str">
-        <f>J36</f>
-        <v>TODO</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="2">
-        <v>4</v>
-      </c>
-      <c r="C54" s="2">
-        <v>1</v>
-      </c>
-      <c r="D54" s="2">
-        <v>64</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="2">
-        <v>50</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J54" s="4" t="str">
-        <f t="shared" ref="J54:J55" si="0">J37</f>
-        <v>exp_traffic_20191209-150036</v>
+      <c r="I54" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
@@ -1756,69 +1740,77 @@
         <v>10</v>
       </c>
       <c r="F55" s="2">
+        <v>25</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="4" t="str">
+        <f>J36</f>
+        <v>exp_traffic_20191215-151704</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="2">
+        <v>4</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>64</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="2">
+        <v>50</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="4" t="str">
+        <f>J37</f>
+        <v>exp_traffic_20191209-150036</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="2">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>64</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="2">
         <v>100</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J55" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="G57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="4" t="str">
+        <f>J38</f>
         <v>exp_traffic_20191206-151859</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="4">
-        <v>4</v>
-      </c>
-      <c r="C56" s="4">
-        <v>1</v>
-      </c>
-      <c r="D56" s="4">
-        <v>64</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="4">
-        <v>25</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A57" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="4">
-        <v>4</v>
-      </c>
-      <c r="C57" s="4">
-        <v>1</v>
-      </c>
-      <c r="D57" s="4">
-        <v>64</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="4">
-        <v>50</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
@@ -1838,7 +1830,7 @@
         <v>10</v>
       </c>
       <c r="F58" s="4">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>44</v>
@@ -1846,6 +1838,83 @@
       <c r="H58" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="4">
+        <v>4</v>
+      </c>
+      <c r="C59" s="4">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4">
+        <v>64</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="4">
+        <v>50</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="4">
+        <v>4</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1</v>
+      </c>
+      <c r="D60" s="4">
+        <v>64</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="4">
+        <v>100</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/examples/masterarbeit/experiments_traffic.xlsx
+++ b/examples/masterarbeit/experiments_traffic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD59F17E-9CD4-4C18-95B4-AA75C0B9C723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B310F0-F5C4-4D10-BDEA-F8E6F0B11929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="0" windowWidth="26914" windowHeight="15514" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
+    <workbookView xWindow="720" yWindow="266" windowWidth="28611" windowHeight="15154" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="66">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -186,9 +186,6 @@
     <t>50% classes only on 20% clients</t>
   </si>
   <si>
-    <t>exp_traffic_20191213-101110</t>
-  </si>
-  <si>
     <t>exp_traffic_20191215-151704</t>
   </si>
   <si>
@@ -198,14 +195,47 @@
     <t>exp_traffic_20191218-094100</t>
   </si>
   <si>
-    <t>mult. Factor</t>
+    <t>exp_traffic_20191220-091548</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191220-104730</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191220-121735</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191220-144732</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191220-181435</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191221-145047</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191221-160121</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191222-114051</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191222-141343</t>
+  </si>
+  <si>
+    <t>exp_traffic_20191223-174802</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>CUDA out of memory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,8 +278,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +308,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -291,22 +340,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Berechnung" xfId="2" builtinId="22"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -621,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -634,7 +687,7 @@
     <col min="6" max="6" width="32.61328125" customWidth="1"/>
     <col min="7" max="7" width="18.15234375" customWidth="1"/>
     <col min="8" max="8" width="12.69140625" customWidth="1"/>
-    <col min="10" max="10" width="46.765625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="30.3046875" style="4" customWidth="1"/>
     <col min="11" max="11" width="22.4609375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -666,7 +719,9 @@
       <c r="J1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
@@ -770,6 +825,7 @@
       <c r="J8" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
@@ -799,6 +855,7 @@
       <c r="J9" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
@@ -828,6 +885,7 @@
       <c r="J10" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
@@ -854,7 +912,10 @@
       <c r="H11" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -883,7 +944,10 @@
       <c r="H12" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -892,7 +956,7 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -912,14 +976,21 @@
       <c r="H13" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>41</v>
       </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>21</v>
       </c>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
@@ -949,8 +1020,9 @@
       <c r="J16" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -978,8 +1050,9 @@
       <c r="J17" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1007,13 +1080,18 @@
       <c r="J18" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1041,8 +1119,9 @@
       <c r="J21" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1070,8 +1149,9 @@
       <c r="J22" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" s="4" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" s="4" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>8</v>
       </c>
@@ -1099,8 +1179,9 @@
       <c r="J23" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1128,8 +1209,9 @@
       <c r="J24" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>8</v>
       </c>
@@ -1157,8 +1239,9 @@
       <c r="J25" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -1168,13 +1251,15 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1202,8 +1287,9 @@
       <c r="J28" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1231,8 +1317,9 @@
       <c r="J29" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1260,11 +1347,16 @@
       <c r="J30" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>20</v>
       </c>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
@@ -1294,6 +1386,7 @@
       <c r="J33" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="K33" s="7"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
@@ -1323,6 +1416,7 @@
       <c r="J34" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="K34" s="7"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
@@ -1352,6 +1446,7 @@
       <c r="J35" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="K35" s="7"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
@@ -1378,8 +1473,11 @@
       <c r="H36" t="s">
         <v>16</v>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>52</v>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="L36" s="4"/>
     </row>
@@ -1408,7 +1506,10 @@
       <c r="H37" t="s">
         <v>16</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L37" s="4"/>
@@ -1438,15 +1539,22 @@
       <c r="H38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>48</v>
       </c>
       <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="K39" s="7"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>24</v>
       </c>
+      <c r="K40" s="7"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
@@ -1476,6 +1584,7 @@
       <c r="J41" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="K41" s="7"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
@@ -1505,6 +1614,7 @@
       <c r="J42" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="K42" s="7"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
@@ -1534,6 +1644,7 @@
       <c r="J43" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="K43" s="7"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
@@ -1563,11 +1674,16 @@
       <c r="J44" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="K45" s="7"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>23</v>
       </c>
+      <c r="K46" s="7"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
@@ -1597,6 +1713,7 @@
       <c r="J47" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="K47" s="7"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
@@ -1625,10 +1742,14 @@
       </c>
       <c r="J48" s="4" t="str">
         <f>J38</f>
+        <v>exp_traffic_20191221-160121</v>
+      </c>
+      <c r="K48" s="7" t="str">
+        <f>K38</f>
         <v>exp_traffic_20191206-151859</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -1656,8 +1777,9 @@
       <c r="J49" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1682,48 +1804,60 @@
       <c r="H50" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="J50" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B51">
-        <v>9</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>8</v>
-      </c>
-      <c r="E51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51">
-        <v>100</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="B54" s="2">
+        <v>4</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>64</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="2">
+        <v>25</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H51" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>22</v>
-      </c>
-      <c r="I54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="4" t="str">
+        <f t="shared" ref="J54:K56" si="0">J36</f>
+        <v>exp_traffic_20191222-141343</v>
+      </c>
+      <c r="K54" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>exp_traffic_20191215-151704</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>9</v>
       </c>
@@ -1740,7 +1874,7 @@
         <v>10</v>
       </c>
       <c r="F55" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>12</v>
@@ -1749,11 +1883,15 @@
         <v>16</v>
       </c>
       <c r="J55" s="4" t="str">
-        <f>J36</f>
-        <v>exp_traffic_20191215-151704</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+        <f t="shared" si="0"/>
+        <v>exp_traffic_20191222-114051</v>
+      </c>
+      <c r="K55" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>exp_traffic_20191209-150036</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>9</v>
       </c>
@@ -1770,7 +1908,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>12</v>
@@ -1779,41 +1917,45 @@
         <v>16</v>
       </c>
       <c r="J56" s="4" t="str">
-        <f>J37</f>
-        <v>exp_traffic_20191209-150036</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A57" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>exp_traffic_20191221-160121</v>
+      </c>
+      <c r="K56" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>exp_traffic_20191206-151859</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A57" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="2">
-        <v>4</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
-      <c r="D57" s="2">
-        <v>64</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="2">
-        <v>100</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" s="4" t="str">
-        <f>J38</f>
-        <v>exp_traffic_20191206-151859</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B57" s="4">
+        <v>4</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4">
+        <v>64</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>56</v>
+      </c>
+      <c r="K57" s="7"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" s="4" t="s">
         <v>9</v>
       </c>
@@ -1838,14 +1980,14 @@
       <c r="H58" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I58">
-        <v>5</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J58" t="s">
+        <v>54</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="4" t="s">
         <v>9</v>
       </c>
@@ -1870,14 +2012,14 @@
       <c r="H59" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I59">
-        <v>5</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J59" t="s">
+        <v>55</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
         <v>9</v>
       </c>
@@ -1902,11 +2044,12 @@
       <c r="H60" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J60" t="s">
+        <v>63</v>
+      </c>
+      <c r="K60" s="7"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>

--- a/examples/masterarbeit/experiments_traffic.xlsx
+++ b/examples/masterarbeit/experiments_traffic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B310F0-F5C4-4D10-BDEA-F8E6F0B11929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D756E10-D5C5-48DD-A88F-09B98E4D17C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="266" windowWidth="28611" windowHeight="15154" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
+    <workbookView xWindow="2006" yWindow="994" windowWidth="28603" windowHeight="15155" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="68">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -229,13 +229,19 @@
   </si>
   <si>
     <t>CUDA out of memory</t>
+  </si>
+  <si>
+    <t>NEXT</t>
+  </si>
+  <si>
+    <t>exp_traffic_20200107-142100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +292,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
@@ -346,7 +360,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -355,6 +369,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Berechnung" xfId="2" builtinId="22"/>
@@ -672,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -688,7 +703,7 @@
     <col min="7" max="7" width="18.15234375" customWidth="1"/>
     <col min="8" max="8" width="12.69140625" customWidth="1"/>
     <col min="10" max="10" width="30.3046875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="22.4609375" customWidth="1"/>
+    <col min="11" max="11" width="22.4609375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
@@ -719,7 +734,7 @@
       <c r="J1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -825,7 +840,6 @@
       <c r="J8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
@@ -855,7 +869,6 @@
       <c r="J9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
@@ -885,7 +898,6 @@
       <c r="J10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
@@ -984,75 +996,73 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="K14" s="7"/>
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="5">
-        <v>10</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
         <v>0</v>
       </c>
-      <c r="D16" s="5">
-        <v>64</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="4" t="s">
+      <c r="D17">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>64</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1066,62 +1076,62 @@
         <v>64</v>
       </c>
       <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
         <v>46</v>
       </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="4" t="s">
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
         <v>47</v>
       </c>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1132,169 +1142,169 @@
         <v>0</v>
       </c>
       <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>32</v>
       </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="4" t="s">
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
         <v>29</v>
       </c>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" s="4" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5">
-        <v>64</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:12" s="4" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>8</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>32</v>
       </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="4" t="s">
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25" t="s">
         <v>27</v>
       </c>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="5">
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
         <v>5</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C26">
         <v>0</v>
       </c>
-      <c r="D25" s="5">
-        <v>64</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="4" t="s">
+      <c r="D26">
+        <v>64</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+    </row>
+    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>64</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28">
-        <v>100</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>8</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1314,17 +1324,16 @@
       <c r="H29" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>8</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1344,26 +1353,78 @@
       <c r="H30" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>64</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1375,82 +1436,31 @@
         <v>10</v>
       </c>
       <c r="F33">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K33" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>64</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34">
-        <v>50</v>
-      </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K34" s="7"/>
+      <c r="J34"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="2">
-        <v>4</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
-        <v>64</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="2">
-        <v>100</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" s="7"/>
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -1471,19 +1481,15 @@
         <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J36" t="s">
-        <v>62</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L36" s="4"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -1504,61 +1510,110 @@
         <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J37" t="s">
-        <v>61</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L37" s="4"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="2">
-        <v>4</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <v>64</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="2">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>64</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38">
         <v>100</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>16</v>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
       </c>
       <c r="J38" t="s">
-        <v>60</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L38" s="4"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="K39" s="7"/>
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>64</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>62</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L39" s="4"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K40" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>64</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>50</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>61</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -1573,218 +1628,162 @@
         <v>10</v>
       </c>
       <c r="F41">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K41" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>60</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="2">
-        <v>4</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>64</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="2">
-        <v>50</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K42" s="7"/>
+      <c r="J42"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43">
-        <v>4</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>64</v>
-      </c>
-      <c r="E43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43">
-        <v>100</v>
-      </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>64</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
         <v>14</v>
       </c>
-      <c r="J43" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K43" s="7"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="2">
-        <v>4</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2">
-        <v>64</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="2">
-        <v>100</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="2" t="s">
+      <c r="J44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>64</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" t="s">
         <v>15</v>
       </c>
-      <c r="J44" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" s="7"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="K45" s="7"/>
+      <c r="J45" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>64</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>64</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J48"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
         <v>23</v>
       </c>
-      <c r="K46" s="7"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="2">
-        <v>4</v>
-      </c>
-      <c r="C47" s="2">
-        <v>1</v>
-      </c>
-      <c r="D47" s="2">
-        <v>64</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="2">
-        <v>100</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K47" s="7"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>64</v>
-      </c>
-      <c r="E48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48">
-        <v>100</v>
-      </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48" s="4" t="str">
-        <f>J38</f>
-        <v>exp_traffic_20191221-160121</v>
-      </c>
-      <c r="K48" s="7" t="str">
-        <f>K38</f>
-        <v>exp_traffic_20191206-151859</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="2">
-        <v>9</v>
-      </c>
-      <c r="C49" s="2">
-        <v>1</v>
-      </c>
-      <c r="D49" s="2">
-        <v>64</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="2">
-        <v>100</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K49" s="7"/>
+      <c r="J49"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1802,223 +1801,214 @@
         <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="J50" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="K51" s="7"/>
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>64</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>100</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" t="str">
+        <f>J41</f>
+        <v>exp_traffic_20191221-160121</v>
+      </c>
+      <c r="K51" s="7" t="str">
+        <f>K41</f>
+        <v>exp_traffic_20191206-151859</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="K52" s="7"/>
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>64</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>100</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>64</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
         <v>22</v>
       </c>
-      <c r="K53" s="7"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="2">
-        <v>4</v>
-      </c>
-      <c r="C54" s="2">
-        <v>1</v>
-      </c>
-      <c r="D54" s="2">
-        <v>64</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="2">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="2">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>64</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="2">
         <v>25</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J54" s="4" t="str">
-        <f t="shared" ref="J54:K56" si="0">J36</f>
+      <c r="G57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="4" t="str">
+        <f t="shared" ref="J57:K59" si="0">J39</f>
         <v>exp_traffic_20191222-141343</v>
       </c>
-      <c r="K54" s="7" t="str">
+      <c r="K57" s="7" t="str">
         <f t="shared" si="0"/>
         <v>exp_traffic_20191215-151704</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="2">
-        <v>4</v>
-      </c>
-      <c r="C55" s="2">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2">
-        <v>64</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="2">
+        <v>4</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>64</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="2">
         <v>50</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J55" s="4" t="str">
+      <c r="G58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="4" t="str">
         <f t="shared" si="0"/>
         <v>exp_traffic_20191222-114051</v>
       </c>
-      <c r="K55" s="7" t="str">
+      <c r="K58" s="7" t="str">
         <f t="shared" si="0"/>
         <v>exp_traffic_20191209-150036</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="2">
-        <v>4</v>
-      </c>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
-      <c r="D56" s="2">
-        <v>64</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="2">
+        <v>4</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>64</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="2">
         <v>100</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J56" s="4" t="str">
+      <c r="G59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="4" t="str">
         <f t="shared" si="0"/>
         <v>exp_traffic_20191221-160121</v>
       </c>
-      <c r="K56" s="7" t="str">
+      <c r="K59" s="7" t="str">
         <f t="shared" si="0"/>
         <v>exp_traffic_20191206-151859</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A57" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="4">
-        <v>4</v>
-      </c>
-      <c r="C57" s="4">
-        <v>1</v>
-      </c>
-      <c r="D57" s="4">
-        <v>64</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" t="s">
-        <v>56</v>
-      </c>
-      <c r="K57" s="7"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A58" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="4">
-        <v>4</v>
-      </c>
-      <c r="C58" s="4">
-        <v>1</v>
-      </c>
-      <c r="D58" s="4">
-        <v>64</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="4">
-        <v>25</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" t="s">
-        <v>54</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="4">
-        <v>4</v>
-      </c>
-      <c r="C59" s="4">
-        <v>1</v>
-      </c>
-      <c r="D59" s="4">
-        <v>64</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="4">
-        <v>50</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59" t="s">
-        <v>55</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
         <v>9</v>
@@ -2036,7 +2026,7 @@
         <v>10</v>
       </c>
       <c r="F60" s="4">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>44</v>
@@ -2045,19 +2035,111 @@
         <v>16</v>
       </c>
       <c r="J60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="4">
+        <v>4</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4">
+        <v>64</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="4">
+        <v>25</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>54</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="4">
+        <v>4</v>
+      </c>
+      <c r="C62" s="4">
+        <v>1</v>
+      </c>
+      <c r="D62" s="4">
+        <v>64</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="4">
+        <v>50</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>55</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="4">
+        <v>4</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="D63" s="4">
+        <v>64</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="4">
+        <v>100</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
         <v>63</v>
       </c>
-      <c r="K60" s="7"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/examples/masterarbeit/experiments_traffic.xlsx
+++ b/examples/masterarbeit/experiments_traffic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D756E10-D5C5-48DD-A88F-09B98E4D17C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0AC711-77B6-4422-B196-73A2FCEB6810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2006" yWindow="994" windowWidth="28603" windowHeight="15155" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="71">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -189,12 +189,6 @@
     <t>exp_traffic_20191215-151704</t>
   </si>
   <si>
-    <t>exp_traffic_20191218-002649</t>
-  </si>
-  <si>
-    <t>exp_traffic_20191218-094100</t>
-  </si>
-  <si>
     <t>exp_traffic_20191220-091548</t>
   </si>
   <si>
@@ -231,10 +225,25 @@
     <t>CUDA out of memory</t>
   </si>
   <si>
+    <t>exp_traffic_20200107-142100</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>ONGOING</t>
+  </si>
+  <si>
+    <t>exp_traffic_20200109-201907</t>
+  </si>
+  <si>
+    <t>exp_traffic_20200109-175513</t>
+  </si>
+  <si>
+    <t>exp_traffic_20200109-102924</t>
+  </si>
+  <si>
     <t>NEXT</t>
-  </si>
-  <si>
-    <t>exp_traffic_20200107-142100</t>
   </si>
 </sst>
 </file>
@@ -687,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -735,7 +744,7 @@
         <v>25</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
@@ -925,7 +934,7 @@
         <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>42</v>
@@ -957,7 +966,7 @@
         <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>40</v>
@@ -989,7 +998,7 @@
         <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>41</v>
@@ -1021,7 +1030,7 @@
         <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1033,7 +1042,7 @@
       </c>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1062,7 +1071,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1093,7 +1102,7 @@
       </c>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1122,74 +1131,76 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="J20"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="J21"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>32</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="4" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1200,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -1214,18 +1225,16 @@
       <c r="H24" t="s">
         <v>16</v>
       </c>
-      <c r="I24"/>
       <c r="J24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>8</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1245,18 +1254,16 @@
       <c r="H25" t="s">
         <v>16</v>
       </c>
-      <c r="I25"/>
       <c r="J25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="4" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>8</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1276,93 +1283,97 @@
       <c r="H26" t="s">
         <v>16</v>
       </c>
+      <c r="I26"/>
       <c r="J26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+    <row r="29" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>19</v>
       </c>
-      <c r="J28"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>64</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29">
-        <v>100</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30">
-        <v>9</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>64</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30">
-        <v>100</v>
-      </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>8</v>
       </c>
       <c r="B31">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1383,15 +1394,15 @@
         <v>15</v>
       </c>
       <c r="J31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1409,22 +1420,18 @@
         <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J32" t="s">
-        <v>60</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L32" s="4"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1442,79 +1449,83 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L33" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="J33" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="J34"/>
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>64</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35"/>
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>64</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L35" s="4"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>64</v>
-      </c>
-      <c r="E36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36">
-        <v>25</v>
-      </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" t="s">
-        <v>39</v>
-      </c>
+      <c r="J36"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>64</v>
-      </c>
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37">
-        <v>50</v>
-      </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" t="s">
-        <v>38</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J37"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
@@ -1533,7 +1544,7 @@
         <v>10</v>
       </c>
       <c r="F38">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
@@ -1542,12 +1553,12 @@
         <v>15</v>
       </c>
       <c r="J38" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -1562,25 +1573,21 @@
         <v>10</v>
       </c>
       <c r="F39">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J39" t="s">
-        <v>62</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L39" s="4"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -1595,21 +1602,17 @@
         <v>10</v>
       </c>
       <c r="F40">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J40" t="s">
-        <v>61</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L40" s="4"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
@@ -1628,7 +1631,7 @@
         <v>10</v>
       </c>
       <c r="F41">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
@@ -1640,76 +1643,84 @@
         <v>60</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="J42"/>
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>64</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>59</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L42" s="4"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43"/>
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>64</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>64</v>
-      </c>
-      <c r="E44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44">
-        <v>50</v>
-      </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" t="s">
-        <v>45</v>
-      </c>
+      <c r="J44"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45">
-        <v>4</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>64</v>
-      </c>
-      <c r="E45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45">
-        <v>50</v>
-      </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" t="s">
-        <v>15</v>
-      </c>
-      <c r="J45" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J45"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
@@ -1728,7 +1739,7 @@
         <v>10</v>
       </c>
       <c r="F46">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
@@ -1737,7 +1748,7 @@
         <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
@@ -1757,7 +1768,7 @@
         <v>10</v>
       </c>
       <c r="F47">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s">
         <v>12</v>
@@ -1766,87 +1777,82 @@
         <v>15</v>
       </c>
       <c r="J47" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="J48"/>
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>64</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>100</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49"/>
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>64</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>100</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>64</v>
-      </c>
-      <c r="E50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50">
-        <v>100</v>
-      </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" t="s">
-        <v>15</v>
-      </c>
-      <c r="J50" t="s">
-        <v>32</v>
-      </c>
+      <c r="J50"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51">
-        <v>4</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>64</v>
-      </c>
-      <c r="E51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51">
-        <v>100</v>
-      </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51" t="str">
-        <f>J41</f>
-        <v>exp_traffic_20191221-160121</v>
-      </c>
-      <c r="K51" s="7" t="str">
-        <f>K41</f>
-        <v>exp_traffic_20191206-151859</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J51"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>8</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1867,7 +1873,7 @@
         <v>15</v>
       </c>
       <c r="J52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
@@ -1875,7 +1881,7 @@
         <v>9</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1895,181 +1901,183 @@
       <c r="H53" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K53" s="7" t="s">
+      <c r="J53" t="str">
+        <f>J43</f>
+        <v>exp_traffic_20191221-160121</v>
+      </c>
+      <c r="K53" s="7" t="str">
+        <f>K43</f>
+        <v>exp_traffic_20191206-151859</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>64</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>64</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>100</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="2">
-        <v>4</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
-      <c r="D57" s="2">
-        <v>64</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="2">
+        <v>4</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>64</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="2">
         <v>25</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" s="4" t="str">
-        <f t="shared" ref="J57:K59" si="0">J39</f>
+      <c r="H59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="4" t="str">
+        <f t="shared" ref="J59:K61" si="0">J41</f>
         <v>exp_traffic_20191222-141343</v>
       </c>
-      <c r="K57" s="7" t="str">
+      <c r="K59" s="7" t="str">
         <f t="shared" si="0"/>
         <v>exp_traffic_20191215-151704</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="2">
-        <v>4</v>
-      </c>
-      <c r="C58" s="2">
-        <v>1</v>
-      </c>
-      <c r="D58" s="2">
-        <v>64</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="2">
+        <v>4</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>64</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="2">
         <v>50</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" s="4" t="str">
+      <c r="H60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="4" t="str">
         <f t="shared" si="0"/>
         <v>exp_traffic_20191222-114051</v>
       </c>
-      <c r="K58" s="7" t="str">
+      <c r="K60" s="7" t="str">
         <f t="shared" si="0"/>
         <v>exp_traffic_20191209-150036</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="2">
-        <v>4</v>
-      </c>
-      <c r="C59" s="2">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2">
-        <v>64</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="2">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>64</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="2">
         <v>100</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59" s="4" t="str">
+      <c r="H61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" s="4" t="str">
         <f t="shared" si="0"/>
         <v>exp_traffic_20191221-160121</v>
       </c>
-      <c r="K59" s="7" t="str">
+      <c r="K61" s="7" t="str">
         <f t="shared" si="0"/>
         <v>exp_traffic_20191206-151859</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A60" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="4">
-        <v>4</v>
-      </c>
-      <c r="C60" s="4">
-        <v>1</v>
-      </c>
-      <c r="D60" s="4">
-        <v>64</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="4">
-        <v>4</v>
-      </c>
-      <c r="C61" s="4">
-        <v>1</v>
-      </c>
-      <c r="D61" s="4">
-        <v>64</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="4">
-        <v>25</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J61" t="s">
-        <v>54</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="4" t="s">
         <v>9</v>
@@ -2087,7 +2095,7 @@
         <v>10</v>
       </c>
       <c r="F62" s="4">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>44</v>
@@ -2096,11 +2104,9 @@
         <v>16</v>
       </c>
       <c r="J62" t="s">
-        <v>55</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>53</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K62"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="4" t="s">
@@ -2119,7 +2125,7 @@
         <v>10</v>
       </c>
       <c r="F63" s="4">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>44</v>
@@ -2128,18 +2134,153 @@
         <v>16</v>
       </c>
       <c r="J63" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
+      <c r="A64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="4">
+        <v>4</v>
+      </c>
+      <c r="C64" s="4">
+        <v>1</v>
+      </c>
+      <c r="D64" s="4">
+        <v>64</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="4">
+        <v>50</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="4">
+        <v>4</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+      <c r="D65" s="4">
+        <v>64</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="4">
+        <v>75</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="4">
+        <v>4</v>
+      </c>
+      <c r="C66" s="4">
+        <v>1</v>
+      </c>
+      <c r="D66" s="4">
+        <v>64</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="4">
+        <v>100</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="4">
+        <v>6</v>
+      </c>
+      <c r="C67" s="4">
+        <v>1</v>
+      </c>
+      <c r="D67" s="4">
+        <v>64</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="4">
+        <v>50</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="4">
+        <v>6</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1</v>
+      </c>
+      <c r="D68" s="4">
+        <v>64</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="4">
+        <v>100</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/examples/masterarbeit/experiments_traffic.xlsx
+++ b/examples/masterarbeit/experiments_traffic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0AC711-77B6-4422-B196-73A2FCEB6810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB38512-D17B-4550-B323-6B219151988E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
@@ -228,12 +228,6 @@
     <t>exp_traffic_20200107-142100</t>
   </si>
   <si>
-    <t>TODO</t>
-  </si>
-  <si>
-    <t>ONGOING</t>
-  </si>
-  <si>
     <t>exp_traffic_20200109-201907</t>
   </si>
   <si>
@@ -243,14 +237,20 @@
     <t>exp_traffic_20200109-102924</t>
   </si>
   <si>
-    <t>NEXT</t>
+    <t>exp_traffic_20200110-082200</t>
+  </si>
+  <si>
+    <t>exp_traffic_20200110-125252</t>
+  </si>
+  <si>
+    <t>exp_traffic_20200111-183015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,13 +295,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -316,7 +309,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,11 +324,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -363,27 +351,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Berechnung" xfId="2" builtinId="22"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -698,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -712,7 +697,7 @@
     <col min="7" max="7" width="18.15234375" customWidth="1"/>
     <col min="8" max="8" width="12.69140625" customWidth="1"/>
     <col min="10" max="10" width="30.3046875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="22.4609375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="22.4609375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
@@ -743,7 +728,7 @@
       <c r="J1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -936,7 +921,7 @@
       <c r="J11" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -968,7 +953,7 @@
       <c r="J12" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1000,7 +985,7 @@
       <c r="J13" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1029,8 +1014,8 @@
       <c r="H14" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>65</v>
+      <c r="J14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1100,7 +1085,7 @@
       <c r="J18" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="7"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
@@ -1157,10 +1142,10 @@
         <v>16</v>
       </c>
       <c r="I20"/>
-      <c r="J20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K20" s="7"/>
+      <c r="J20" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
@@ -1187,8 +1172,8 @@
       <c r="H21" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>66</v>
+      <c r="J21" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1287,7 +1272,7 @@
       <c r="J26" t="s">
         <v>28</v>
       </c>
-      <c r="K26" s="7"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
@@ -1318,7 +1303,7 @@
       <c r="J27" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="7"/>
+      <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
@@ -1360,7 +1345,7 @@
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
-      <c r="K29" s="7"/>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
@@ -1480,10 +1465,10 @@
       <c r="H34" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" t="s">
         <v>58</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="K34" s="6" t="s">
         <v>48</v>
       </c>
       <c r="L34" s="4"/>
@@ -1513,7 +1498,7 @@
       <c r="H35" t="s">
         <v>16</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" t="s">
         <v>64</v>
       </c>
       <c r="L35" s="4"/>
@@ -1642,7 +1627,7 @@
       <c r="J41" t="s">
         <v>60</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="K41" s="6" t="s">
         <v>51</v>
       </c>
       <c r="L41" s="4"/>
@@ -1675,7 +1660,7 @@
       <c r="J42" t="s">
         <v>59</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="K42" s="6" t="s">
         <v>49</v>
       </c>
       <c r="L42" s="4"/>
@@ -1708,7 +1693,7 @@
       <c r="J43" t="s">
         <v>58</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="K43" s="6" t="s">
         <v>48</v>
       </c>
       <c r="L43" s="4"/>
@@ -1905,7 +1890,7 @@
         <f>J43</f>
         <v>exp_traffic_20191221-160121</v>
       </c>
-      <c r="K53" s="7" t="str">
+      <c r="K53" s="6" t="str">
         <f>K43</f>
         <v>exp_traffic_20191206-151859</v>
       </c>
@@ -1964,17 +1949,24 @@
       <c r="H55" t="s">
         <v>16</v>
       </c>
-      <c r="J55" s="6" t="s">
+      <c r="J55" t="s">
         <v>63</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="K55" s="6" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J56"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J57"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>22</v>
       </c>
+      <c r="J58"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
@@ -2001,11 +1993,11 @@
       <c r="H59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J59" s="4" t="str">
+      <c r="J59" t="str">
         <f t="shared" ref="J59:K61" si="0">J41</f>
         <v>exp_traffic_20191222-141343</v>
       </c>
-      <c r="K59" s="7" t="str">
+      <c r="K59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>exp_traffic_20191215-151704</v>
       </c>
@@ -2035,11 +2027,11 @@
       <c r="H60" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J60" s="4" t="str">
+      <c r="J60" t="str">
         <f t="shared" si="0"/>
         <v>exp_traffic_20191222-114051</v>
       </c>
-      <c r="K60" s="7" t="str">
+      <c r="K60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>exp_traffic_20191209-150036</v>
       </c>
@@ -2069,11 +2061,11 @@
       <c r="H61" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J61" s="4" t="str">
+      <c r="J61" t="str">
         <f t="shared" si="0"/>
         <v>exp_traffic_20191221-160121</v>
       </c>
-      <c r="K61" s="7" t="str">
+      <c r="K61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>exp_traffic_20191206-151859</v>
       </c>
@@ -2191,8 +2183,8 @@
       <c r="H65" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J65" s="1" t="s">
-        <v>68</v>
+      <c r="J65" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
@@ -2249,8 +2241,8 @@
       <c r="H67" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J67" s="1" t="s">
-        <v>67</v>
+      <c r="J67" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
@@ -2278,8 +2270,8 @@
       <c r="H68" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J68" s="1" t="s">
-        <v>69</v>
+      <c r="J68" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/examples/masterarbeit/experiments_traffic.xlsx
+++ b/examples/masterarbeit/experiments_traffic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB38512-D17B-4550-B323-6B219151988E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BE9819-ED7E-4435-8F25-428842567426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="74">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -244,6 +244,15 @@
   </si>
   <si>
     <t>exp_traffic_20200111-183015</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>1,4,5,6,9,10,19,20</t>
+  </si>
+  <si>
+    <t>exp_traffic_20200112-130710</t>
   </si>
 </sst>
 </file>
@@ -681,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -736,8 +745,8 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>72</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -762,9 +771,6 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
       <c r="C3">
         <v>1</v>
       </c>
@@ -785,12 +791,6 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
       <c r="D4">
         <v>64</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>10</v>
       </c>
       <c r="F40">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -1595,13 +1595,13 @@
       <c r="H40" t="s">
         <v>15</v>
       </c>
-      <c r="J40" t="s">
-        <v>32</v>
+      <c r="J40" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -1616,21 +1616,17 @@
         <v>10</v>
       </c>
       <c r="F41">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J41" t="s">
-        <v>60</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L41" s="4"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
@@ -1649,7 +1645,7 @@
         <v>10</v>
       </c>
       <c r="F42">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
@@ -1658,10 +1654,10 @@
         <v>16</v>
       </c>
       <c r="J42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L42" s="4"/>
     </row>
@@ -1682,7 +1678,7 @@
         <v>10</v>
       </c>
       <c r="F43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
@@ -1691,79 +1687,84 @@
         <v>16</v>
       </c>
       <c r="J43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="J44"/>
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>64</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>75</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L44" s="4"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>24</v>
-      </c>
-      <c r="J45"/>
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>64</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>64</v>
-      </c>
-      <c r="E46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46">
-        <v>50</v>
-      </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46" t="s">
-        <v>45</v>
-      </c>
+      <c r="J46"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>64</v>
-      </c>
-      <c r="E47" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47">
-        <v>50</v>
-      </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" t="s">
-        <v>15</v>
-      </c>
-      <c r="J47" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J47"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
@@ -1782,7 +1783,7 @@
         <v>10</v>
       </c>
       <c r="F48">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
@@ -1791,7 +1792,7 @@
         <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
@@ -1811,7 +1812,7 @@
         <v>10</v>
       </c>
       <c r="F49">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s">
         <v>12</v>
@@ -1820,87 +1821,82 @@
         <v>15</v>
       </c>
       <c r="J49" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="J50"/>
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>64</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>100</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51"/>
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>64</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>100</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52">
-        <v>4</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>64</v>
-      </c>
-      <c r="E52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52">
-        <v>100</v>
-      </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" t="s">
-        <v>15</v>
-      </c>
-      <c r="J52" t="s">
-        <v>32</v>
-      </c>
+      <c r="J52"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53">
-        <v>4</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>64</v>
-      </c>
-      <c r="E53" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53">
-        <v>100</v>
-      </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" t="s">
-        <v>16</v>
-      </c>
-      <c r="J53" t="str">
-        <f>J43</f>
-        <v>exp_traffic_20191221-160121</v>
-      </c>
-      <c r="K53" s="6" t="str">
-        <f>K43</f>
-        <v>exp_traffic_20191206-151859</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J53"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>8</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1921,7 +1917,7 @@
         <v>15</v>
       </c>
       <c r="J54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
@@ -1929,7 +1925,7 @@
         <v>9</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1949,92 +1945,87 @@
       <c r="H55" t="s">
         <v>16</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" t="str">
+        <f>J45</f>
+        <v>exp_traffic_20191221-160121</v>
+      </c>
+      <c r="K55" s="6" t="str">
+        <f>K45</f>
+        <v>exp_traffic_20191206-151859</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>64</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>100</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>64</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>100</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
         <v>63</v>
       </c>
-      <c r="K55" s="6" t="s">
+      <c r="K57" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="J56"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="J57"/>
-    </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
+      <c r="J58"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
         <v>22</v>
       </c>
-      <c r="J58"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="2">
-        <v>4</v>
-      </c>
-      <c r="C59" s="2">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2">
-        <v>64</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="2">
-        <v>25</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59" t="str">
-        <f t="shared" ref="J59:K61" si="0">J41</f>
-        <v>exp_traffic_20191222-141343</v>
-      </c>
-      <c r="K59" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>exp_traffic_20191215-151704</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="2">
-        <v>4</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2">
-        <v>64</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="2">
-        <v>50</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J60" t="str">
-        <f t="shared" si="0"/>
-        <v>exp_traffic_20191222-114051</v>
-      </c>
-      <c r="K60" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>exp_traffic_20191209-150036</v>
-      </c>
+      <c r="J60"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
@@ -2053,82 +2044,91 @@
         <v>10</v>
       </c>
       <c r="F61" s="2">
+        <v>25</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" t="str">
+        <f>J42</f>
+        <v>exp_traffic_20191222-141343</v>
+      </c>
+      <c r="K61" s="6" t="str">
+        <f>K42</f>
+        <v>exp_traffic_20191215-151704</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="2">
+        <v>4</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>64</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="2">
+        <v>50</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" t="str">
+        <f>J43</f>
+        <v>exp_traffic_20191222-114051</v>
+      </c>
+      <c r="K62" s="6" t="str">
+        <f>K43</f>
+        <v>exp_traffic_20191209-150036</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="2">
+        <v>4</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2">
+        <v>64</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="2">
         <v>100</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J61" t="str">
-        <f t="shared" si="0"/>
+      <c r="G63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" ref="J63:K63" si="0">J45</f>
         <v>exp_traffic_20191221-160121</v>
       </c>
-      <c r="K61" s="6" t="str">
+      <c r="K63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>exp_traffic_20191206-151859</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A62" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" s="4">
-        <v>4</v>
-      </c>
-      <c r="C62" s="4">
-        <v>1</v>
-      </c>
-      <c r="D62" s="4">
-        <v>64</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J62" t="s">
-        <v>54</v>
-      </c>
-      <c r="K62"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A63" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" s="4">
-        <v>4</v>
-      </c>
-      <c r="C63" s="4">
-        <v>1</v>
-      </c>
-      <c r="D63" s="4">
-        <v>64</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="4">
-        <v>25</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J63" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="4" t="s">
         <v>9</v>
@@ -2146,7 +2146,7 @@
         <v>10</v>
       </c>
       <c r="F64" s="4">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>44</v>
@@ -2155,8 +2155,9 @@
         <v>16</v>
       </c>
       <c r="J64" t="s">
-        <v>53</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K64"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="4" t="s">
@@ -2175,7 +2176,7 @@
         <v>10</v>
       </c>
       <c r="F65" s="4">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>44</v>
@@ -2184,7 +2185,7 @@
         <v>16</v>
       </c>
       <c r="J65" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
@@ -2204,7 +2205,7 @@
         <v>10</v>
       </c>
       <c r="F66" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>44</v>
@@ -2213,7 +2214,7 @@
         <v>16</v>
       </c>
       <c r="J66" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
@@ -2221,7 +2222,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C67" s="4">
         <v>1</v>
@@ -2233,7 +2234,7 @@
         <v>10</v>
       </c>
       <c r="F67" s="4">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>44</v>
@@ -2242,7 +2243,7 @@
         <v>16</v>
       </c>
       <c r="J67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
@@ -2250,7 +2251,7 @@
         <v>9</v>
       </c>
       <c r="B68" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C68" s="4">
         <v>1</v>
@@ -2271,6 +2272,64 @@
         <v>16</v>
       </c>
       <c r="J68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="4">
+        <v>6</v>
+      </c>
+      <c r="C69" s="4">
+        <v>1</v>
+      </c>
+      <c r="D69" s="4">
+        <v>64</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="4">
+        <v>50</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="4">
+        <v>6</v>
+      </c>
+      <c r="C70" s="4">
+        <v>1</v>
+      </c>
+      <c r="D70" s="4">
+        <v>64</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="4">
+        <v>100</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
         <v>67</v>
       </c>
     </row>

--- a/examples/masterarbeit/experiments_traffic.xlsx
+++ b/examples/masterarbeit/experiments_traffic.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/floriannuding/PySyft-fork/examples/masterarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BE9819-ED7E-4435-8F25-428842567426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C0265A-7787-104A-A85E-2C09736AF334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="75">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -253,13 +253,16 @@
   </si>
   <si>
     <t>exp_traffic_20200112-130710</t>
+  </si>
+  <si>
+    <t>REDO for 100 epochs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +320,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -365,7 +375,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -374,6 +384,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Berechnung" xfId="2" builtinId="22"/>
@@ -690,26 +701,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.23046875" customWidth="1"/>
-    <col min="2" max="2" width="15.15234375" customWidth="1"/>
-    <col min="3" max="3" width="16.84375" customWidth="1"/>
-    <col min="5" max="5" width="43.3828125" customWidth="1"/>
-    <col min="6" max="6" width="32.61328125" customWidth="1"/>
-    <col min="7" max="7" width="18.15234375" customWidth="1"/>
-    <col min="8" max="8" width="12.69140625" customWidth="1"/>
-    <col min="10" max="10" width="30.3046875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="22.4609375" style="6" customWidth="1"/>
+    <col min="1" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="43.33203125" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="22.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -741,7 +751,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -767,7 +777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -790,7 +800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D4">
         <v>64</v>
       </c>
@@ -801,12 +811,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -835,7 +845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -864,7 +874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -893,7 +903,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -925,7 +935,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -957,7 +967,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -989,7 +999,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1018,16 +1028,16 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1056,7 +1066,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1087,7 +1097,7 @@
       </c>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1116,7 +1126,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1147,7 +1157,7 @@
       </c>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1176,16 +1186,16 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1214,7 +1224,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1243,7 +1253,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="4" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1274,7 +1284,7 @@
       </c>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1305,7 +1315,7 @@
       </c>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1334,7 +1344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -1347,13 +1357,13 @@
       <c r="J29"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1382,7 +1392,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1411,7 +1421,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1440,7 +1450,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1473,7 +1483,7 @@
       </c>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1503,16 +1513,16 @@
       </c>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>20</v>
       </c>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1541,7 +1551,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1570,7 +1580,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1599,7 +1609,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1628,7 +1638,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1661,7 +1671,7 @@
       </c>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1694,7 +1704,7 @@
       </c>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1724,7 +1734,7 @@
       </c>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1757,16 +1767,16 @@
       </c>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>24</v>
       </c>
       <c r="J47"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1795,7 +1805,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1824,7 +1834,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1853,7 +1863,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1882,16 +1892,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>23</v>
       </c>
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1920,7 +1930,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1954,7 +1964,7 @@
         <v>exp_traffic_20191206-151859</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -1983,7 +1993,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -2015,19 +2025,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J58"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J59"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>22</v>
       </c>
       <c r="J60"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>9</v>
       </c>
@@ -2061,7 +2071,7 @@
         <v>exp_traffic_20191215-151704</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -2095,7 +2105,7 @@
         <v>exp_traffic_20191209-150036</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
@@ -2129,7 +2139,7 @@
         <v>exp_traffic_20191206-151859</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>9</v>
       </c>
@@ -2159,7 +2169,7 @@
       </c>
       <c r="K64"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>9</v>
       </c>
@@ -2188,7 +2198,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>9</v>
       </c>
@@ -2216,8 +2226,11 @@
       <c r="J66" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K66" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>9</v>
       </c>
@@ -2245,8 +2258,9 @@
       <c r="J67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K67" s="8"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>9</v>
       </c>
@@ -2274,8 +2288,11 @@
       <c r="J68" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K68" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>9</v>
       </c>
@@ -2303,8 +2320,11 @@
       <c r="J69" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K69" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>9</v>
       </c>
@@ -2331,6 +2351,35 @@
       </c>
       <c r="J70" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="4">
+        <v>6</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1</v>
+      </c>
+      <c r="D71" s="4">
+        <v>64</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="4">
+        <v>25</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/examples/masterarbeit/experiments_traffic.xlsx
+++ b/examples/masterarbeit/experiments_traffic.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/floriannuding/PySyft-fork/examples/masterarbeit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C0265A-7787-104A-A85E-2C09736AF334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619B7DEB-BE10-408E-AF2A-702438CE690D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="78">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -246,9 +246,6 @@
     <t>exp_traffic_20200111-183015</t>
   </si>
   <si>
-    <t>TODO</t>
-  </si>
-  <si>
     <t>1,4,5,6,9,10,19,20</t>
   </si>
   <si>
@@ -256,6 +253,18 @@
   </si>
   <si>
     <t>REDO for 100 epochs</t>
+  </si>
+  <si>
+    <t>exp_traffic_20200121-121133</t>
+  </si>
+  <si>
+    <t>exp_traffic_20200124-190249</t>
+  </si>
+  <si>
+    <t>exp_traffic_20200125-083517</t>
+  </si>
+  <si>
+    <t>exp_traffic_20200125-151122</t>
   </si>
 </sst>
 </file>
@@ -701,25 +710,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="43.33203125" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="22.5" style="6" customWidth="1"/>
+    <col min="1" max="2" width="15.15234375" customWidth="1"/>
+    <col min="3" max="3" width="16.84375" customWidth="1"/>
+    <col min="5" max="5" width="43.3046875" customWidth="1"/>
+    <col min="6" max="6" width="32.69140625" customWidth="1"/>
+    <col min="7" max="7" width="18.15234375" customWidth="1"/>
+    <col min="8" max="8" width="12.69140625" customWidth="1"/>
+    <col min="10" max="10" width="30.3046875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="22.4609375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,12 +760,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -777,7 +786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -800,7 +809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D4">
         <v>64</v>
       </c>
@@ -811,12 +820,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -845,7 +854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -874,7 +883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -903,7 +912,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -935,7 +944,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -967,7 +976,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -999,7 +1008,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1028,16 +1037,16 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1066,7 +1075,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1097,7 +1106,7 @@
       </c>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1126,7 +1135,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1157,7 +1166,7 @@
       </c>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1186,16 +1195,16 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1224,7 +1233,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1253,7 +1262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1284,7 +1293,7 @@
       </c>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1315,7 +1324,7 @@
       </c>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1344,7 +1353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -1357,13 +1366,13 @@
       <c r="J29"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>19</v>
       </c>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1401,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1421,7 +1430,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1450,7 +1459,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1483,7 +1492,7 @@
       </c>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1513,16 +1522,16 @@
       </c>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>20</v>
       </c>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1551,7 +1560,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1580,7 +1589,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1606,10 +1615,10 @@
         <v>15</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1638,7 +1647,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1671,7 +1680,7 @@
       </c>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1704,7 +1713,7 @@
       </c>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1730,11 +1739,11 @@
         <v>16</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1767,16 +1776,16 @@
       </c>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>24</v>
       </c>
       <c r="J47"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1805,7 +1814,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1834,7 +1843,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1863,7 +1872,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1892,16 +1901,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>23</v>
       </c>
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1930,7 +1939,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1964,7 +1973,7 @@
         <v>exp_traffic_20191206-151859</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -1993,7 +2002,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -2025,19 +2034,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="J58"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="J59"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>22</v>
       </c>
       <c r="J60"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>9</v>
       </c>
@@ -2071,7 +2080,7 @@
         <v>exp_traffic_20191215-151704</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -2105,7 +2114,7 @@
         <v>exp_traffic_20191209-150036</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
@@ -2139,7 +2148,7 @@
         <v>exp_traffic_20191206-151859</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="4" t="s">
         <v>9</v>
       </c>
@@ -2169,7 +2178,7 @@
       </c>
       <c r="K64"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="4" t="s">
         <v>9</v>
       </c>
@@ -2198,7 +2207,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="4" t="s">
         <v>9</v>
       </c>
@@ -2227,10 +2236,10 @@
         <v>53</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" s="4" t="s">
         <v>9</v>
       </c>
@@ -2260,7 +2269,7 @@
       </c>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" s="4" t="s">
         <v>9</v>
       </c>
@@ -2288,11 +2297,11 @@
       <c r="J68" t="s">
         <v>61</v>
       </c>
-      <c r="K68" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" s="4" t="s">
         <v>9</v>
       </c>
@@ -2320,11 +2329,11 @@
       <c r="J69" t="s">
         <v>65</v>
       </c>
-      <c r="K69" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" s="4" t="s">
         <v>9</v>
       </c>
@@ -2353,7 +2362,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" s="4" t="s">
         <v>9</v>
       </c>
@@ -2378,9 +2387,15 @@
       <c r="H71" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J71" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="J71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/examples/masterarbeit/experiments_traffic.xlsx
+++ b/examples/masterarbeit/experiments_traffic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619B7DEB-BE10-408E-AF2A-702438CE690D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FF99FA-3967-4256-92EB-7E7C94753D32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
+    <workbookView xWindow="58875" yWindow="1155" windowWidth="26970" windowHeight="12975" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="78">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -261,17 +261,17 @@
     <t>exp_traffic_20200124-190249</t>
   </si>
   <si>
-    <t>exp_traffic_20200125-083517</t>
-  </si>
-  <si>
     <t>exp_traffic_20200125-151122</t>
+  </si>
+  <si>
+    <t>TODO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,8 +336,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +359,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -379,12 +391,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -394,9 +407,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Berechnung" xfId="2" builtinId="22"/>
+    <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -710,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1522,72 +1537,66 @@
       </c>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="J36"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37"/>
+    <row r="36" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="9">
+        <v>5</v>
+      </c>
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+      <c r="D36" s="9">
+        <v>64</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="9">
+        <v>100</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="9">
+        <v>6</v>
+      </c>
+      <c r="C37" s="9">
+        <v>1</v>
+      </c>
+      <c r="D37" s="9">
+        <v>64</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="9">
+        <v>100</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>64</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38">
-        <v>25</v>
-      </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" t="s">
-        <v>39</v>
-      </c>
+      <c r="J38"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39">
-        <v>4</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>64</v>
-      </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39">
-        <v>50</v>
-      </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" t="s">
-        <v>38</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J39"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
@@ -1606,7 +1615,7 @@
         <v>10</v>
       </c>
       <c r="F40">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -1614,8 +1623,8 @@
       <c r="H40" t="s">
         <v>15</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>76</v>
+      <c r="J40" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
@@ -1635,7 +1644,7 @@
         <v>10</v>
       </c>
       <c r="F41">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
@@ -1644,12 +1653,12 @@
         <v>15</v>
       </c>
       <c r="J41" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -1664,25 +1673,21 @@
         <v>10</v>
       </c>
       <c r="F42">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J42" t="s">
-        <v>60</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L42" s="4"/>
+        <v>77</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -1697,21 +1702,17 @@
         <v>10</v>
       </c>
       <c r="F43">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J43" t="s">
-        <v>59</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L43" s="4"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
@@ -1730,7 +1731,7 @@
         <v>10</v>
       </c>
       <c r="F44">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -1738,8 +1739,11 @@
       <c r="H44" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>72</v>
+      <c r="J44" t="s">
+        <v>60</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="L44" s="4"/>
     </row>
@@ -1760,7 +1764,7 @@
         <v>10</v>
       </c>
       <c r="F45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
@@ -1769,79 +1773,84 @@
         <v>16</v>
       </c>
       <c r="J45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="J46"/>
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>64</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>75</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L46" s="4"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>24</v>
-      </c>
-      <c r="J47"/>
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>64</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>58</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L47" s="4"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>64</v>
-      </c>
-      <c r="E48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48">
-        <v>50</v>
-      </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48" t="s">
-        <v>45</v>
-      </c>
+      <c r="J48"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>64</v>
-      </c>
-      <c r="E49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49">
-        <v>50</v>
-      </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" t="s">
-        <v>15</v>
-      </c>
-      <c r="J49" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J49"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
@@ -1860,7 +1869,7 @@
         <v>10</v>
       </c>
       <c r="F50">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
@@ -1869,7 +1878,7 @@
         <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
@@ -1889,7 +1898,7 @@
         <v>10</v>
       </c>
       <c r="F51">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s">
         <v>12</v>
@@ -1898,87 +1907,82 @@
         <v>15</v>
       </c>
       <c r="J51" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="J52"/>
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>64</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>100</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>23</v>
-      </c>
-      <c r="J53"/>
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>64</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54">
-        <v>4</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>64</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54">
-        <v>100</v>
-      </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" t="s">
-        <v>15</v>
-      </c>
-      <c r="J54" t="s">
-        <v>32</v>
-      </c>
+      <c r="J54"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55">
-        <v>4</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>64</v>
-      </c>
-      <c r="E55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55">
-        <v>100</v>
-      </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" t="s">
-        <v>16</v>
-      </c>
-      <c r="J55" t="str">
-        <f>J45</f>
-        <v>exp_traffic_20191221-160121</v>
-      </c>
-      <c r="K55" s="6" t="str">
-        <f>K45</f>
-        <v>exp_traffic_20191206-151859</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J55"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>8</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1999,7 +2003,7 @@
         <v>15</v>
       </c>
       <c r="J56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
@@ -2007,7 +2011,7 @@
         <v>9</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2027,92 +2031,87 @@
       <c r="H57" t="s">
         <v>16</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" t="str">
+        <f>J47</f>
+        <v>exp_traffic_20191221-160121</v>
+      </c>
+      <c r="K57" s="6" t="str">
+        <f>K47</f>
+        <v>exp_traffic_20191206-151859</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>64</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58">
+        <v>100</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>64</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59">
+        <v>100</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
         <v>63</v>
       </c>
-      <c r="K57" s="6" t="s">
+      <c r="K59" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="J58"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="J59"/>
-    </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
         <v>22</v>
       </c>
-      <c r="J60"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="2">
-        <v>4</v>
-      </c>
-      <c r="C61" s="2">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2">
-        <v>64</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="2">
-        <v>25</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J61" t="str">
-        <f>J42</f>
-        <v>exp_traffic_20191222-141343</v>
-      </c>
-      <c r="K61" s="6" t="str">
-        <f>K42</f>
-        <v>exp_traffic_20191215-151704</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" s="2">
-        <v>4</v>
-      </c>
-      <c r="C62" s="2">
-        <v>1</v>
-      </c>
-      <c r="D62" s="2">
-        <v>64</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="2">
-        <v>50</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J62" t="str">
-        <f>J43</f>
-        <v>exp_traffic_20191222-114051</v>
-      </c>
-      <c r="K62" s="6" t="str">
-        <f>K43</f>
-        <v>exp_traffic_20191209-150036</v>
-      </c>
+      <c r="J62"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
@@ -2131,143 +2130,127 @@
         <v>10</v>
       </c>
       <c r="F63" s="2">
+        <v>25</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" t="str">
+        <f>J44</f>
+        <v>exp_traffic_20191222-141343</v>
+      </c>
+      <c r="K63" s="6" t="str">
+        <f>K44</f>
+        <v>exp_traffic_20191215-151704</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="2">
+        <v>4</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2">
+        <v>64</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="2">
+        <v>50</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" t="str">
+        <f>J45</f>
+        <v>exp_traffic_20191222-114051</v>
+      </c>
+      <c r="K64" s="6" t="str">
+        <f>K45</f>
+        <v>exp_traffic_20191209-150036</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="9">
+        <v>4</v>
+      </c>
+      <c r="C65" s="9">
+        <v>1</v>
+      </c>
+      <c r="D65" s="9">
+        <v>64</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="9">
+        <v>75</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="2">
+        <v>4</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2">
+        <v>64</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="2">
         <v>100</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J63" t="str">
-        <f t="shared" ref="J63:K63" si="0">J45</f>
+      <c r="G66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" ref="J66:K66" si="0">J47</f>
         <v>exp_traffic_20191221-160121</v>
       </c>
-      <c r="K63" s="6" t="str">
+      <c r="K66" s="6" t="str">
         <f t="shared" si="0"/>
         <v>exp_traffic_20191206-151859</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A64" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" s="4">
-        <v>4</v>
-      </c>
-      <c r="C64" s="4">
-        <v>1</v>
-      </c>
-      <c r="D64" s="4">
-        <v>64</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J64" t="s">
-        <v>54</v>
-      </c>
-      <c r="K64"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A65" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="4">
-        <v>4</v>
-      </c>
-      <c r="C65" s="4">
-        <v>1</v>
-      </c>
-      <c r="D65" s="4">
-        <v>64</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="4">
-        <v>25</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A66" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" s="4">
-        <v>4</v>
-      </c>
-      <c r="C66" s="4">
-        <v>1</v>
-      </c>
-      <c r="D66" s="4">
-        <v>64</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="4">
-        <v>50</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J66" t="s">
-        <v>53</v>
-      </c>
-      <c r="K66" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="4">
-        <v>4</v>
-      </c>
-      <c r="C67" s="4">
-        <v>1</v>
-      </c>
-      <c r="D67" s="4">
-        <v>64</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="4">
-        <v>75</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J67" t="s">
-        <v>66</v>
-      </c>
-      <c r="K67" s="8"/>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="J67"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" s="4" t="s">
@@ -2286,7 +2269,7 @@
         <v>10</v>
       </c>
       <c r="F68" s="4">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>44</v>
@@ -2295,18 +2278,16 @@
         <v>16</v>
       </c>
       <c r="J68" t="s">
-        <v>61</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K68"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B69" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C69" s="4">
         <v>1</v>
@@ -2318,7 +2299,7 @@
         <v>10</v>
       </c>
       <c r="F69" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>44</v>
@@ -2327,10 +2308,10 @@
         <v>16</v>
       </c>
       <c r="J69" t="s">
-        <v>65</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
@@ -2338,7 +2319,7 @@
         <v>9</v>
       </c>
       <c r="B70" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C70" s="4">
         <v>1</v>
@@ -2350,7 +2331,7 @@
         <v>10</v>
       </c>
       <c r="F70" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>44</v>
@@ -2359,7 +2340,10 @@
         <v>16</v>
       </c>
       <c r="J70" t="s">
-        <v>67</v>
+        <v>53</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
@@ -2367,7 +2351,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C71" s="4">
         <v>1</v>
@@ -2379,7 +2363,7 @@
         <v>10</v>
       </c>
       <c r="F71" s="4">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>44</v>
@@ -2387,15 +2371,150 @@
       <c r="H71" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J71" t="s">
+        <v>66</v>
+      </c>
+      <c r="K71" s="8"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="4">
+        <v>4</v>
+      </c>
+      <c r="C72" s="4">
+        <v>1</v>
+      </c>
+      <c r="D72" s="4">
+        <v>64</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="4">
+        <v>100</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>61</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="J73"/>
+      <c r="K73"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="4">
+        <v>6</v>
+      </c>
+      <c r="C74" s="4">
+        <v>1</v>
+      </c>
+      <c r="D74" s="4">
+        <v>64</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="4">
+        <v>25</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="K74" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="K72"/>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="4">
+        <v>6</v>
+      </c>
+      <c r="C75" s="4">
+        <v>1</v>
+      </c>
+      <c r="D75" s="4">
+        <v>64</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="4">
+        <v>50</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>65</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="4">
+        <v>6</v>
+      </c>
+      <c r="C76" s="4">
+        <v>1</v>
+      </c>
+      <c r="D76" s="4">
+        <v>64</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="4">
+        <v>100</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
